--- a/admin/mappings/Grossman_Mapping.xlsx
+++ b/admin/mappings/Grossman_Mapping.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tw/Dropbox/TW Excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1AD8C8-51C1-FA47-91FC-B6B7D0168647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BE9EB7-FA4D-5449-A566-5DE8B9CB12C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{63070529-74F9-B440-A77D-D92467CA050A}"/>
   </bookViews>
   <sheets>
     <sheet name="RUBGR" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -598,7 +598,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
